--- a/data/statistical/filled_NaN_xlsx/青海省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/青海省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>53.5</v>
       </c>
       <c r="E2">
-        <v>1906.446428090334</v>
+        <v>1906.446428328753</v>
       </c>
       <c r="F2">
         <v>5042.52</v>
@@ -609,85 +609,85 @@
         <v>11.7</v>
       </c>
       <c r="H2">
-        <v>54.70826860002533</v>
+        <v>45.18747469949706</v>
       </c>
       <c r="I2">
-        <v>3.593725490507495</v>
+        <v>3.593725490332872</v>
       </c>
       <c r="J2">
-        <v>6.620072959223762</v>
+        <v>6.620072957361117</v>
       </c>
       <c r="K2">
-        <v>32.76287591981236</v>
+        <v>32.76287591925939</v>
       </c>
       <c r="L2">
-        <v>2.648592721818723</v>
+        <v>2.510058527580693</v>
       </c>
       <c r="M2">
-        <v>213.8310576752992</v>
+        <v>213.8310576747754</v>
       </c>
       <c r="N2">
-        <v>224.4732843143283</v>
+        <v>224.4732843168895</v>
       </c>
       <c r="O2">
-        <v>27.78247548826039</v>
+        <v>27.78247549384832</v>
       </c>
       <c r="P2">
-        <v>3654.372222301798</v>
+        <v>3309.407426794433</v>
       </c>
       <c r="Q2">
-        <v>77.46517156879418</v>
+        <v>77.46517156955088</v>
       </c>
       <c r="R2">
-        <v>30.50133126287255</v>
+        <v>30.50133125903085</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-27953.95815587044</v>
       </c>
       <c r="T2">
-        <v>196823.1960811615</v>
+        <v>196823.196138382</v>
       </c>
       <c r="U2">
-        <v>0.9991208791259396</v>
+        <v>0.9991208791338977</v>
       </c>
       <c r="V2">
-        <v>0.2499587211059406</v>
+        <v>0.2499587195343338</v>
       </c>
       <c r="W2">
-        <v>88.32362111391707</v>
+        <v>89.099432895866</v>
       </c>
       <c r="X2">
-        <v>2146.142156541348</v>
+        <v>2146.142156951129</v>
       </c>
       <c r="Y2">
         <v>57.20035715261474</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-8826.776834368706</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>30.50020132505083</v>
       </c>
       <c r="AB2">
-        <v>64425.00226545334</v>
+        <v>6887.172223985195</v>
       </c>
       <c r="AC2">
-        <v>41671.22133183479</v>
+        <v>179482.5871200562</v>
       </c>
       <c r="AD2">
-        <v>207.1696971077472</v>
+        <v>-1457.802447568625</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-20076.45453262329</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-31526.39994728565</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1897.030031971563</v>
       </c>
       <c r="AH2">
-        <v>72137.78209853172</v>
+        <v>7085.250672071681</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>10.85</v>
       </c>
       <c r="H3">
-        <v>48.52201067129022</v>
+        <v>41.23312944734096</v>
       </c>
       <c r="I3">
         <v>3.5</v>
       </c>
       <c r="J3">
-        <v>6.523114414419979</v>
+        <v>6.523114412557334</v>
       </c>
       <c r="K3">
         <v>30.7534597642235</v>
@@ -743,13 +743,13 @@
         <v>78.73999999999999</v>
       </c>
       <c r="R3">
-        <v>27.06774509313982</v>
+        <v>27.06774508894887</v>
       </c>
       <c r="S3">
         <v>6607.3</v>
       </c>
       <c r="T3">
-        <v>242006.0588207245</v>
+        <v>242006.058883667</v>
       </c>
       <c r="U3">
         <v>0.95</v>
@@ -764,34 +764,34 @@
         <v>1990</v>
       </c>
       <c r="Y3">
-        <v>54.3486675908789</v>
+        <v>54.34866759041324</v>
       </c>
       <c r="Z3">
-        <v>7527.455881595612</v>
+        <v>7527.455880045891</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>29.7441152005964</v>
       </c>
       <c r="AB3">
-        <v>53429.59841823578</v>
+        <v>8345.779563486576</v>
       </c>
       <c r="AC3">
-        <v>33682.80944228172</v>
+        <v>154787.2975997925</v>
       </c>
       <c r="AD3">
-        <v>158.4181819409132</v>
+        <v>-1239.169580418617</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-16329.62726223469</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-26017.79995644093</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-59.19837957428348</v>
       </c>
       <c r="AH3">
-        <v>62778.08924651146</v>
+        <v>9230.016993296702</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>9.869999999999999</v>
       </c>
       <c r="H4">
-        <v>47.64363218967306</v>
+        <v>59.31587237845125</v>
       </c>
       <c r="I4">
         <v>3.9</v>
       </c>
       <c r="J4">
-        <v>7.072345751104876</v>
+        <v>7.072345749242231</v>
       </c>
       <c r="K4">
         <v>23.6000858184939</v>
@@ -847,7 +847,7 @@
         <v>82.28</v>
       </c>
       <c r="R4">
-        <v>24.03558823163621</v>
+        <v>24.03558822744526</v>
       </c>
       <c r="S4">
         <v>5896.3</v>
@@ -868,34 +868,34 @@
         <v>1908</v>
       </c>
       <c r="Y4">
-        <v>51.90094780910295</v>
+        <v>51.9009478087537</v>
       </c>
       <c r="Z4">
         <v>52456</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>23.38514939221207</v>
       </c>
       <c r="AB4">
-        <v>43497.92229318619</v>
+        <v>9945.888151884079</v>
       </c>
       <c r="AC4">
-        <v>26625.49515533447</v>
+        <v>132392.2547330856</v>
       </c>
       <c r="AD4">
-        <v>115.54545465298</v>
+        <v>-1031.467282708734</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-12948.0272642374</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>-21015.91425037384</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>10993.39225675868</v>
       </c>
       <c r="AH4">
-        <v>54067.52972769737</v>
+        <v>6135.454529630117</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.9</v>
       </c>
       <c r="J5">
-        <v>8.267766968347132</v>
+        <v>8.267766966950148</v>
       </c>
       <c r="K5">
         <v>26.2957373187072</v>
@@ -972,34 +972,34 @@
         <v>1032</v>
       </c>
       <c r="Y5">
-        <v>49.85719780786894</v>
+        <v>49.85719780717045</v>
       </c>
       <c r="Z5">
         <v>46748</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>26.63205554759585</v>
       </c>
       <c r="AB5">
-        <v>34629.9738907814</v>
+        <v>11687.49798935652</v>
       </c>
       <c r="AC5">
-        <v>20499.27847099304</v>
+        <v>112297.4585208893</v>
       </c>
       <c r="AD5">
-        <v>78.55151524953544</v>
+        <v>-834.695554420352</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-9931.654538869858</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-16520.7428290844</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1571.239329060804</v>
       </c>
       <c r="AH5">
-        <v>46006.1035425663</v>
+        <v>8993.260335861765</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>986</v>
       </c>
       <c r="Y6">
-        <v>48.21741758706048</v>
+        <v>48.21741758624557</v>
       </c>
       <c r="Z6">
         <v>5385</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>24.17296338017045</v>
       </c>
       <c r="AB6">
-        <v>26825.75321149826</v>
+        <v>13570.60907578468</v>
       </c>
       <c r="AC6">
-        <v>15304.15938901901</v>
+        <v>94502.90896320343</v>
       </c>
       <c r="AD6">
-        <v>47.43636372126639</v>
+        <v>-648.8543955758214</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-7280.50908601284</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>-12532.28569281101</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>-1087.478025888583</v>
       </c>
       <c r="AH6">
-        <v>38593.81068968773</v>
+        <v>3981.145736296741</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>45177</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>29.7353996282785</v>
       </c>
       <c r="AB7">
-        <v>20085.26025438309</v>
+        <v>15595.22141122818</v>
       </c>
       <c r="AC7">
-        <v>11040.13790988922</v>
+        <v>79008.60606002808</v>
       </c>
       <c r="AD7">
-        <v>22.2000000718981</v>
+        <v>-473.9438061602414</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-4994.590905547142</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>-9050.542841315269</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>7027.90640674717</v>
       </c>
       <c r="AH7">
-        <v>31830.65116977692</v>
+        <v>7693.952711656631</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>53597</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>31.543646854844</v>
       </c>
       <c r="AB8">
-        <v>14408.49501943588</v>
+        <v>17761.3349956274</v>
       </c>
       <c r="AC8">
-        <v>7707.214033126831</v>
+        <v>65814.54981040955</v>
       </c>
       <c r="AD8">
-        <v>2.842424305155873</v>
+        <v>-309.9637861698866</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>-3073.899997711182</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>-6075.514274716377</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>5679.348628051934</v>
       </c>
       <c r="AH8">
-        <v>25716.62498283386</v>
+        <v>8692.602877173367</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>140659</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>22.31106364531996</v>
       </c>
       <c r="AB9">
-        <v>9795.457507610321</v>
+        <v>20068.94982904196</v>
       </c>
       <c r="AC9">
-        <v>5305.387758970261</v>
+        <v>54920.74021530151</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>-156.9143356233835</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>-1518.436362266541</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>-3607.199992895126</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>9601.239522389493</v>
       </c>
       <c r="AH9">
-        <v>20251.73212909698</v>
+        <v>14261.3913457783</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>117804</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>21.30736171487734</v>
       </c>
       <c r="AB10">
-        <v>6246.147717475891</v>
+        <v>22518.06591147184</v>
       </c>
       <c r="AC10">
-        <v>3834.65908741951</v>
+        <v>46327.17727375031</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>-14.795454505831</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>-328.199999332428</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>-1645.599996209145</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>4076.404689545041</v>
       </c>
       <c r="AH10">
-        <v>15435.97260808945</v>
+        <v>9074.834689598069</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>177492</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB11">
-        <v>361</v>
+        <v>15351</v>
       </c>
       <c r="AC11">
-        <v>1299</v>
+        <v>23438</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2882</v>
       </c>
       <c r="AH11">
-        <v>11269.34642028809</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>135644</v>
       </c>
       <c r="AA12">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AB12">
-        <v>1486</v>
+        <v>26455</v>
       </c>
       <c r="AC12">
-        <v>1374</v>
+        <v>41620</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>956.590909719467</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>5488</v>
       </c>
       <c r="AH12">
-        <v>7751.853565692902</v>
+        <v>25321</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>152755</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AB13">
-        <v>6093</v>
+        <v>39039</v>
       </c>
       <c r="AC13">
-        <v>1009</v>
+        <v>46988</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1362</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>24705</v>
       </c>
       <c r="AH13">
-        <v>4883.494043827057</v>
+        <v>16614</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>132044</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AB14">
-        <v>1666</v>
+        <v>41538</v>
       </c>
       <c r="AC14">
-        <v>11341</v>
+        <v>40885</v>
       </c>
       <c r="AD14">
-        <v>6</v>
+        <v>536</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>4072</v>
       </c>
       <c r="AH14">
-        <v>2664.26785492897</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>112668</v>
       </c>
       <c r="AA15">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AB15">
-        <v>4143</v>
+        <v>45689</v>
       </c>
       <c r="AC15">
-        <v>19946</v>
+        <v>42601</v>
       </c>
       <c r="AD15">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2862</v>
       </c>
       <c r="AH15">
-        <v>21</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>178414</v>
       </c>
       <c r="AA16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB16">
-        <v>9619</v>
+        <v>40681</v>
       </c>
       <c r="AC16">
-        <v>15837</v>
+        <v>49469</v>
       </c>
       <c r="AD16">
-        <v>94</v>
+        <v>675</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>-856.5545444488525</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>-516.9999974966049</v>
       </c>
       <c r="AG16">
-        <v>160</v>
+        <v>3640</v>
       </c>
       <c r="AH16">
-        <v>828</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>81.771</v>
       </c>
       <c r="K17">
-        <v>6.881819397996878</v>
+        <v>6.881819398433436</v>
       </c>
       <c r="L17">
-        <v>2.519903936954694</v>
+        <v>2.271753994538032</v>
       </c>
       <c r="M17">
         <v>19.1749560923946</v>
@@ -2226,28 +2226,28 @@
         <v>198809</v>
       </c>
       <c r="AA17">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AB17">
-        <v>17780.3</v>
+        <v>37340.9</v>
       </c>
       <c r="AC17">
-        <v>19060.6</v>
+        <v>40853.7</v>
       </c>
       <c r="AD17">
-        <v>54</v>
+        <v>688</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>-2222.90908908844</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>-2102.399994969368</v>
       </c>
       <c r="AG17">
-        <v>124</v>
+        <v>2329</v>
       </c>
       <c r="AH17">
-        <v>475</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>93.40000000000001</v>
       </c>
       <c r="K18">
-        <v>5.996481519774534</v>
+        <v>5.996481520385714</v>
       </c>
       <c r="L18">
-        <v>2.653127144162003</v>
+        <v>2.563860084157869</v>
       </c>
       <c r="M18">
         <v>16.2189422838655</v>
@@ -2312,13 +2312,13 @@
         <v>156475</v>
       </c>
       <c r="U18">
-        <v>1.767692307694688</v>
+        <v>1.767692307700372</v>
       </c>
       <c r="V18">
         <v>87.7</v>
       </c>
       <c r="W18">
-        <v>85.69992059652975</v>
+        <v>97.91252468451049</v>
       </c>
       <c r="X18">
         <v>289</v>
@@ -2330,28 +2330,28 @@
         <v>205904</v>
       </c>
       <c r="AA18">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AB18">
-        <v>24669.9</v>
+        <v>46092.6</v>
       </c>
       <c r="AC18">
-        <v>37646.3</v>
+        <v>56030.6</v>
       </c>
       <c r="AD18">
-        <v>163</v>
+        <v>560</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>-3954.490906119347</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>-4194.514277100563</v>
       </c>
       <c r="AG18">
-        <v>703.8551721572876</v>
+        <v>2083.5</v>
       </c>
       <c r="AH18">
-        <v>1872.3</v>
+        <v>9001.1</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>50.5</v>
       </c>
       <c r="E19">
-        <v>20449.69642829895</v>
+        <v>20449.69642803073</v>
       </c>
       <c r="F19">
         <v>23799.175</v>
@@ -2386,10 +2386,10 @@
         <v>96.8</v>
       </c>
       <c r="K19">
-        <v>5.216151877888478</v>
+        <v>5.216151878528763</v>
       </c>
       <c r="L19">
-        <v>2.543694763418249</v>
+        <v>2.443187588017229</v>
       </c>
       <c r="M19">
         <v>14.5690251015695</v>
@@ -2416,13 +2416,13 @@
         <v>12279</v>
       </c>
       <c r="U19">
-        <v>1.812005494509094</v>
+        <v>1.812005494517166</v>
       </c>
       <c r="V19">
         <v>95.09999999999999</v>
       </c>
       <c r="W19">
-        <v>86.05493981382838</v>
+        <v>73.9522771406897</v>
       </c>
       <c r="X19">
         <v>298</v>
@@ -2434,28 +2434,28 @@
         <v>220576</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AB19">
-        <v>14146.5</v>
+        <v>39897.8</v>
       </c>
       <c r="AC19">
-        <v>26213.2</v>
+        <v>65286.9</v>
       </c>
       <c r="AD19">
-        <v>155</v>
+        <v>690</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>-6051.29999601841</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>-6793.342844009399</v>
       </c>
       <c r="AG19">
-        <v>798.0379304885864</v>
+        <v>1635</v>
       </c>
       <c r="AH19">
-        <v>1086.1</v>
+        <v>3407.4</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>50.8</v>
       </c>
       <c r="E20">
-        <v>22179.85399118066</v>
+        <v>22179.85399088264</v>
       </c>
       <c r="F20">
         <v>24315.1798</v>
@@ -2490,10 +2490,10 @@
         <v>110.1349</v>
       </c>
       <c r="K20">
-        <v>4.540830472222297</v>
+        <v>4.540830472978996</v>
       </c>
       <c r="L20">
-        <v>2.556648294234033</v>
+        <v>2.183337493284886</v>
       </c>
       <c r="M20">
         <v>13.3416724330654</v>
@@ -2520,13 +2520,13 @@
         <v>48484</v>
       </c>
       <c r="U20">
-        <v>1.855880736914969</v>
+        <v>1.855880736925997</v>
       </c>
       <c r="V20">
         <v>95.3</v>
       </c>
       <c r="W20">
-        <v>79.01351030449912</v>
+        <v>88.84714050957058</v>
       </c>
       <c r="X20">
         <v>311</v>
@@ -2538,28 +2538,28 @@
         <v>294308</v>
       </c>
       <c r="AA20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AB20">
-        <v>13708</v>
+        <v>45788</v>
       </c>
       <c r="AC20">
-        <v>17420</v>
+        <v>77100</v>
       </c>
       <c r="AD20">
-        <v>262</v>
+        <v>737</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-8513.336358070374</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-9898.885696172714</v>
       </c>
       <c r="AG20">
-        <v>1055</v>
+        <v>1485</v>
       </c>
       <c r="AH20">
-        <v>1055</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>49.2</v>
       </c>
       <c r="E21">
-        <v>23981.05357089639</v>
+        <v>23981.05357050896</v>
       </c>
       <c r="F21">
         <v>24512.5</v>
@@ -2594,25 +2594,25 @@
         <v>103.2696</v>
       </c>
       <c r="K21">
-        <v>3.970517302805092</v>
+        <v>3.970517303590896</v>
       </c>
       <c r="L21">
-        <v>2.283029609242639</v>
+        <v>2.51726132599785</v>
       </c>
       <c r="M21">
         <v>12.1928477331896</v>
       </c>
       <c r="N21">
-        <v>145.0830882384325</v>
+        <v>145.0830882369191</v>
       </c>
       <c r="O21">
-        <v>111.0397303854115</v>
+        <v>111.0397303774953</v>
       </c>
       <c r="P21">
         <v>3065.2</v>
       </c>
       <c r="Q21">
-        <v>97.33517156902235</v>
+        <v>97.33517156838207</v>
       </c>
       <c r="R21">
         <v>35.9</v>
@@ -2621,49 +2621,49 @@
         <v>80812</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-62570.88244628906</v>
       </c>
       <c r="U21">
-        <v>1.899318034912653</v>
+        <v>1.89931803492675</v>
       </c>
       <c r="V21">
         <v>95.7</v>
       </c>
       <c r="W21">
-        <v>92.76957241834516</v>
+        <v>86.39482421719727</v>
       </c>
       <c r="X21">
-        <v>762.3186276778579</v>
+        <v>762.3186272382736</v>
       </c>
       <c r="Y21">
-        <v>72.09708791167941</v>
+        <v>72.09708791400772</v>
       </c>
       <c r="Z21">
         <v>165883</v>
       </c>
       <c r="AA21">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AB21">
-        <v>30787</v>
+        <v>64963</v>
       </c>
       <c r="AC21">
-        <v>42638</v>
+        <v>104919</v>
       </c>
       <c r="AD21">
-        <v>262</v>
+        <v>953</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>-11340.59999263287</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-13511.14283287525</v>
       </c>
       <c r="AG21">
-        <v>209</v>
+        <v>4669</v>
       </c>
       <c r="AH21">
-        <v>4155</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>45.6</v>
       </c>
       <c r="E22">
-        <v>25853.29516738653</v>
+        <v>25853.2951669395</v>
       </c>
       <c r="F22">
         <v>21700.2157</v>
@@ -2692,82 +2692,82 @@
         <v>61.43</v>
       </c>
       <c r="I22">
-        <v>1.613374612803455</v>
+        <v>1.613374612978077</v>
       </c>
       <c r="J22">
-        <v>127.4569794647396</v>
+        <v>127.4569794654381</v>
       </c>
       <c r="K22">
-        <v>3.505212369665969</v>
+        <v>3.505212370539084</v>
       </c>
       <c r="L22">
-        <v>2.527129543911347</v>
+        <v>2.345449627326249</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-14.94834619906032</v>
       </c>
       <c r="N22">
-        <v>142.3521542865783</v>
+        <v>142.3521542849485</v>
       </c>
       <c r="O22">
-        <v>129.6939692897722</v>
+        <v>129.6939692809246</v>
       </c>
       <c r="P22">
-        <v>4001.220913371373</v>
+        <v>4293.497381691845</v>
       </c>
       <c r="Q22">
-        <v>96.44996259076288</v>
+        <v>96.4499625901226</v>
       </c>
       <c r="R22">
-        <v>38.10117646539584</v>
+        <v>38.1011764757568</v>
       </c>
       <c r="S22">
         <v>80994</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-141595.6275596619</v>
       </c>
       <c r="U22">
-        <v>1.942317388502033</v>
+        <v>1.9423173885192</v>
       </c>
       <c r="V22">
-        <v>101.1317131044343</v>
+        <v>101.1317131062387</v>
       </c>
       <c r="W22">
-        <v>89.08875338692324</v>
+        <v>78.52523792409383</v>
       </c>
       <c r="X22">
-        <v>986.7690920978785</v>
+        <v>986.7690916061401</v>
       </c>
       <c r="Y22">
-        <v>76.92082417604979</v>
+        <v>76.92082417884376</v>
       </c>
       <c r="Z22">
-        <v>235633.7107774019</v>
+        <v>235633.7107864618</v>
       </c>
       <c r="AA22">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AB22">
-        <v>60844.8</v>
+        <v>69919</v>
       </c>
       <c r="AC22">
-        <v>76434.5</v>
+        <v>133726.8</v>
       </c>
       <c r="AD22">
-        <v>354</v>
+        <v>854</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>-14533.09089970589</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-17630.11425447464</v>
       </c>
       <c r="AG22">
-        <v>29.8</v>
+        <v>380.4</v>
       </c>
       <c r="AH22">
-        <v>9825.6</v>
+        <v>7592.3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>47.4</v>
       </c>
       <c r="E23">
-        <v>27796.57878068089</v>
+        <v>27796.57878017426</v>
       </c>
       <c r="F23">
-        <v>27475.87086562067</v>
+        <v>27475.87086545303</v>
       </c>
       <c r="G23">
         <v>1.68</v>
       </c>
       <c r="H23">
-        <v>49.56921086119622</v>
+        <v>43.53762276364665</v>
       </c>
       <c r="I23">
-        <v>1.306369452839135</v>
+        <v>1.306369453013758</v>
       </c>
       <c r="J23">
-        <v>140.2838185413275</v>
+        <v>140.2838185417932</v>
       </c>
       <c r="K23">
-        <v>3.144915672688512</v>
+        <v>3.144915673648939</v>
       </c>
       <c r="L23">
-        <v>2.54342278289322</v>
+        <v>2.356563373743504</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-24.1821577976807</v>
       </c>
       <c r="N23">
-        <v>139.7659700767836</v>
+        <v>139.7659700751537</v>
       </c>
       <c r="O23">
-        <v>149.7754360060208</v>
+        <v>149.7754359957762</v>
       </c>
       <c r="P23">
-        <v>4155.09966133556</v>
+        <v>4045.08986582618</v>
       </c>
       <c r="Q23">
-        <v>95.37165376736084</v>
+        <v>95.37165376666235</v>
       </c>
       <c r="R23">
-        <v>42.6961764638545</v>
+        <v>42.69617647607811</v>
       </c>
       <c r="S23">
-        <v>90433.79605078697</v>
+        <v>90433.79605674744</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-227157.6151924133</v>
       </c>
       <c r="U23">
-        <v>1.984878797682995</v>
+        <v>1.9848787977038</v>
       </c>
       <c r="V23">
-        <v>104.7651042291545</v>
+        <v>104.7651042310172</v>
       </c>
       <c r="W23">
-        <v>93.79052518743933</v>
+        <v>79.75594532795049</v>
       </c>
       <c r="X23">
-        <v>1240.947884686291</v>
+        <v>1240.947884142399</v>
       </c>
       <c r="Y23">
-        <v>82.14853022038005</v>
+        <v>82.14853022387251</v>
       </c>
       <c r="Z23">
-        <v>243290.6627883911</v>
+        <v>243290.6627992392</v>
       </c>
       <c r="AA23">
-        <v>7.318181816255674</v>
+        <v>27.12798283108582</v>
       </c>
       <c r="AB23">
-        <v>56904.3431968689</v>
+        <v>67233.18864130974</v>
       </c>
       <c r="AC23">
-        <v>69445.06819057465</v>
+        <v>143933.3045711517</v>
       </c>
       <c r="AD23">
-        <v>417.9333333279938</v>
+        <v>838.0681817270815</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>-18090.80907928944</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>-22255.7999612093</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>-670.0887567588138</v>
       </c>
       <c r="AH23">
-        <v>11902.23213934898</v>
+        <v>1378.659583829925</v>
       </c>
     </row>
   </sheetData>
